--- a/doc/license.xlsx
+++ b/doc/license.xlsx
@@ -256,9 +256,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +267,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,151 +576,151 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="8.875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2500</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>F2 * H2 - 1</f>
-        <v>249</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.1</v>
+        <v>999</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>6000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G5" si="0">F3 * H3 - 1</f>
-        <v>1199</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.2</v>
+        <v>2399</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>12000</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
-        <v>3599</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.3</v>
+        <v>4799</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>20000</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>5999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.3</v>
+        <v>7999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +778,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -796,10 +796,10 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>399</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>I2 * 6.2356</f>
         <v>2488.0043999999998</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -828,10 +828,10 @@
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J5" si="0">I3 * 6.2356</f>
         <v>6229.3643999999995</v>
       </c>
@@ -841,7 +841,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -860,10 +860,10 @@
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>1999</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>12464.964399999999</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -892,10 +892,10 @@
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>3299</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>20571.2444</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -920,7 +920,7 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>6000</v>
       </c>
       <c r="K6" s="1">
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>10000</v>
       </c>
       <c r="K7" s="1">
@@ -948,7 +948,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>20000</v>
       </c>
       <c r="K8" s="1">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>30000</v>
       </c>
     </row>
